--- a/uploads/012024_09AGJPA4914E1ZP_GSTR2B_17022024 (4).xlsx
+++ b/uploads/012024_09AGJPA4914E1ZP_GSTR2B_17022024 (4).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D53B5D-B518-42EA-A559-22A280479B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA264014-69E6-482C-9885-61C36306FAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="295">
   <si>
     <t>Goods and Services Tax  - GSTR-2B</t>
   </si>
@@ -829,9 +829,6 @@
     <t>PEHNAWA SILK MILLS</t>
   </si>
   <si>
-    <t>10076</t>
-  </si>
-  <si>
     <t>17/01/2024</t>
   </si>
   <si>
@@ -863,9 +860,6 @@
   </si>
   <si>
     <t>MAHALAXMI TEXTILES</t>
-  </si>
-  <si>
-    <t>5679</t>
   </si>
   <si>
     <t>06/02/2024</t>
@@ -1168,14 +1162,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1186,26 +1180,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1221,6 +1203,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1590,54 +1584,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="20" t="s">
@@ -1714,1948 +1708,2097 @@
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="28">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" ht="28">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
     </row>
     <row r="52" spans="1:6" ht="28">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="25" t="s">
         <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="18"/>
-      <c r="B57" s="19"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="18"/>
-      <c r="B58" s="19"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="18"/>
-      <c r="B59" s="19"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="18"/>
-      <c r="B65" s="19"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="18"/>
-      <c r="B66" s="19"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="18"/>
-      <c r="B67" s="19"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="18"/>
-      <c r="B68" s="19"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="18"/>
-      <c r="B69" s="19"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="18"/>
-      <c r="B70" s="19"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="18"/>
-      <c r="B71" s="19"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
     </row>
     <row r="72" spans="1:6" ht="28">
-      <c r="A72" s="18"/>
-      <c r="B72" s="19"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="18"/>
-      <c r="B73" s="19"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="18"/>
-      <c r="B74" s="19"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="25"/>
       <c r="C74" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="18"/>
-      <c r="B75" s="19"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="25"/>
       <c r="C75" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="18"/>
-      <c r="B76" s="19"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="25"/>
       <c r="C76" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="18"/>
-      <c r="B77" s="19"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="25"/>
       <c r="C77" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="D77" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="18"/>
-      <c r="B78" s="19"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="25"/>
       <c r="C78" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="25" t="s">
         <v>88</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="D79" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="18"/>
-      <c r="B80" s="19"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="25"/>
       <c r="C80" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="18"/>
-      <c r="B81" s="19"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="18"/>
-      <c r="B82" s="19"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="25"/>
       <c r="C82" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="18"/>
-      <c r="B83" s="19"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="25"/>
       <c r="C83" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="18"/>
-      <c r="B84" s="19"/>
+      <c r="A84" s="24"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D84" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="18"/>
-      <c r="B85" s="19"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="25"/>
       <c r="C85" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D85" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="18"/>
-      <c r="B86" s="19"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="25"/>
       <c r="C86" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="17" t="s">
+      <c r="D86" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="18"/>
-      <c r="B87" s="19"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="25"/>
       <c r="C87" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="17" t="s">
+      <c r="D87" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="18"/>
-      <c r="B88" s="19"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D88" s="17" t="s">
+      <c r="D88" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="18"/>
-      <c r="B89" s="19"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="25"/>
       <c r="C89" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D89" s="17" t="s">
+      <c r="D89" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="18"/>
-      <c r="B90" s="19"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="25"/>
       <c r="C90" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="17" t="s">
+      <c r="D90" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="18"/>
-      <c r="B91" s="19"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="25"/>
       <c r="C91" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D91" s="17" t="s">
+      <c r="D91" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="18"/>
-      <c r="B92" s="19"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="25"/>
       <c r="C92" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="17" t="s">
+      <c r="D92" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="18"/>
-      <c r="B93" s="19"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="25"/>
       <c r="C93" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D93" s="17" t="s">
+      <c r="D93" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="18"/>
-      <c r="B94" s="19"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="25"/>
       <c r="C94" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D94" s="17" t="s">
+      <c r="D94" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="18"/>
-      <c r="B95" s="19"/>
+      <c r="A95" s="24"/>
+      <c r="B95" s="25"/>
       <c r="C95" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D95" s="17" t="s">
+      <c r="D95" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="18"/>
-      <c r="B96" s="19"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="25"/>
       <c r="C96" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D96" s="17" t="s">
+      <c r="D96" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="18"/>
-      <c r="B97" s="19"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="25"/>
       <c r="C97" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="D97" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
     </row>
     <row r="98" spans="1:6" ht="28">
-      <c r="A98" s="18"/>
-      <c r="B98" s="19"/>
+      <c r="A98" s="24"/>
+      <c r="B98" s="25"/>
       <c r="C98" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D98" s="17" t="s">
+      <c r="D98" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="18"/>
-      <c r="B99" s="19"/>
+      <c r="A99" s="24"/>
+      <c r="B99" s="25"/>
       <c r="C99" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="D99" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="18"/>
-      <c r="B100" s="19"/>
+      <c r="A100" s="24"/>
+      <c r="B100" s="25"/>
       <c r="C100" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D100" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="18"/>
-      <c r="B101" s="19"/>
+      <c r="A101" s="24"/>
+      <c r="B101" s="25"/>
       <c r="C101" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D101" s="17" t="s">
+      <c r="D101" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B102" s="25" t="s">
         <v>96</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D102" s="17" t="s">
+      <c r="D102" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="18"/>
-      <c r="B103" s="19"/>
+      <c r="A103" s="24"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="17" t="s">
+      <c r="D103" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="18"/>
-      <c r="B104" s="19"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="25"/>
       <c r="C104" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D104" s="17" t="s">
+      <c r="D104" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="18"/>
-      <c r="B105" s="19"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="25"/>
       <c r="C105" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="17" t="s">
+      <c r="D105" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="18"/>
-      <c r="B106" s="19"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D106" s="17" t="s">
+      <c r="D106" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="18"/>
-      <c r="B107" s="19"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="25"/>
       <c r="C107" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D107" s="17" t="s">
+      <c r="D107" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="18"/>
-      <c r="B108" s="19"/>
+      <c r="A108" s="24"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="17" t="s">
+      <c r="D108" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="18"/>
-      <c r="B109" s="19"/>
+      <c r="A109" s="24"/>
+      <c r="B109" s="25"/>
       <c r="C109" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D109" s="17" t="s">
+      <c r="D109" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="18"/>
-      <c r="B110" s="19"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="25"/>
       <c r="C110" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D110" s="17" t="s">
+      <c r="D110" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="18"/>
-      <c r="B111" s="19"/>
+      <c r="A111" s="24"/>
+      <c r="B111" s="25"/>
       <c r="C111" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D111" s="17" t="s">
+      <c r="D111" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="18"/>
-      <c r="B112" s="19"/>
+      <c r="A112" s="24"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D112" s="17" t="s">
+      <c r="D112" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="18"/>
-      <c r="B113" s="19"/>
+      <c r="A113" s="24"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D113" s="17" t="s">
+      <c r="D113" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="18"/>
-      <c r="B114" s="19"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="25"/>
       <c r="C114" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D114" s="17" t="s">
+      <c r="D114" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="18"/>
-      <c r="B115" s="19"/>
+      <c r="A115" s="24"/>
+      <c r="B115" s="25"/>
       <c r="C115" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D115" s="17" t="s">
+      <c r="D115" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="18"/>
-      <c r="B116" s="19"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="25"/>
       <c r="C116" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D116" s="17" t="s">
+      <c r="D116" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="18"/>
-      <c r="B117" s="19"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="25"/>
       <c r="C117" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D117" s="17" t="s">
+      <c r="D117" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="18"/>
-      <c r="B118" s="19"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="25"/>
       <c r="C118" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D118" s="17" t="s">
+      <c r="D118" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="18"/>
-      <c r="B119" s="19"/>
+      <c r="A119" s="24"/>
+      <c r="B119" s="25"/>
       <c r="C119" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D119" s="17" t="s">
+      <c r="D119" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="18"/>
-      <c r="B120" s="19"/>
+      <c r="A120" s="24"/>
+      <c r="B120" s="25"/>
       <c r="C120" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D120" s="17" t="s">
+      <c r="D120" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E120" s="17"/>
-      <c r="F120" s="17"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="18"/>
-      <c r="B121" s="19"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="25"/>
       <c r="C121" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D121" s="17" t="s">
+      <c r="D121" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="18" t="s">
+      <c r="A122" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B122" s="19" t="s">
+      <c r="B122" s="25" t="s">
         <v>117</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D122" s="17" t="s">
+      <c r="D122" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E122" s="17"/>
-      <c r="F122" s="17"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="18"/>
-      <c r="B123" s="19"/>
+      <c r="A123" s="24"/>
+      <c r="B123" s="25"/>
       <c r="C123" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D123" s="17" t="s">
+      <c r="D123" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="18"/>
-      <c r="B124" s="19"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="25"/>
       <c r="C124" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D124" s="17" t="s">
+      <c r="D124" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E124" s="17"/>
-      <c r="F124" s="17"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="18"/>
-      <c r="B125" s="19"/>
+      <c r="A125" s="24"/>
+      <c r="B125" s="25"/>
       <c r="C125" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D125" s="17" t="s">
+      <c r="D125" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E125" s="17"/>
-      <c r="F125" s="17"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="18"/>
-      <c r="B126" s="19"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="25"/>
       <c r="C126" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D126" s="17" t="s">
+      <c r="D126" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="18"/>
-      <c r="B127" s="19"/>
+      <c r="A127" s="24"/>
+      <c r="B127" s="25"/>
       <c r="C127" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D127" s="17" t="s">
+      <c r="D127" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E127" s="17"/>
-      <c r="F127" s="17"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="18"/>
-      <c r="B128" s="19"/>
+      <c r="A128" s="24"/>
+      <c r="B128" s="25"/>
       <c r="C128" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D128" s="17" t="s">
+      <c r="D128" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E128" s="17"/>
-      <c r="F128" s="17"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="18"/>
-      <c r="B129" s="19"/>
+      <c r="A129" s="24"/>
+      <c r="B129" s="25"/>
       <c r="C129" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D129" s="17" t="s">
+      <c r="D129" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E129" s="17"/>
-      <c r="F129" s="17"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="18"/>
-      <c r="B130" s="19"/>
+      <c r="A130" s="24"/>
+      <c r="B130" s="25"/>
       <c r="C130" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D130" s="17" t="s">
+      <c r="D130" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E130" s="17"/>
-      <c r="F130" s="17"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="18"/>
-      <c r="B131" s="19"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="25"/>
       <c r="C131" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D131" s="17" t="s">
+      <c r="D131" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E131" s="17"/>
-      <c r="F131" s="17"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="23"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="18"/>
-      <c r="B132" s="19"/>
+      <c r="A132" s="24"/>
+      <c r="B132" s="25"/>
       <c r="C132" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D132" s="17" t="s">
+      <c r="D132" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E132" s="17"/>
-      <c r="F132" s="17"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="18"/>
-      <c r="B133" s="19"/>
+      <c r="A133" s="24"/>
+      <c r="B133" s="25"/>
       <c r="C133" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D133" s="17" t="s">
+      <c r="D133" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E133" s="17"/>
-      <c r="F133" s="17"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="18"/>
-      <c r="B134" s="19"/>
+      <c r="A134" s="24"/>
+      <c r="B134" s="25"/>
       <c r="C134" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D134" s="17" t="s">
+      <c r="D134" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E134" s="17"/>
-      <c r="F134" s="17"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="23"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="18"/>
-      <c r="B135" s="19"/>
+      <c r="A135" s="24"/>
+      <c r="B135" s="25"/>
       <c r="C135" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D135" s="17" t="s">
+      <c r="D135" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E135" s="17"/>
-      <c r="F135" s="17"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="18" t="s">
+      <c r="A136" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B136" s="19" t="s">
+      <c r="B136" s="25" t="s">
         <v>138</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D136" s="17" t="s">
+      <c r="D136" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E136" s="17"/>
-      <c r="F136" s="17"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="23"/>
     </row>
     <row r="137" spans="1:6" ht="28">
-      <c r="A137" s="18"/>
-      <c r="B137" s="19"/>
+      <c r="A137" s="24"/>
+      <c r="B137" s="25"/>
       <c r="C137" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D137" s="17" t="s">
+      <c r="D137" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E137" s="17"/>
-      <c r="F137" s="17"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="23"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="18"/>
-      <c r="B138" s="19"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="25"/>
       <c r="C138" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D138" s="17" t="s">
+      <c r="D138" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="23"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="18"/>
-      <c r="B139" s="19"/>
+      <c r="A139" s="24"/>
+      <c r="B139" s="25"/>
       <c r="C139" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D139" s="17" t="s">
+      <c r="D139" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E139" s="17"/>
-      <c r="F139" s="17"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="18"/>
-      <c r="B140" s="19"/>
+      <c r="A140" s="24"/>
+      <c r="B140" s="25"/>
       <c r="C140" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D140" s="17" t="s">
+      <c r="D140" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E140" s="17"/>
-      <c r="F140" s="17"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="23"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="18"/>
-      <c r="B141" s="19"/>
+      <c r="A141" s="24"/>
+      <c r="B141" s="25"/>
       <c r="C141" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D141" s="17" t="s">
+      <c r="D141" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E141" s="17"/>
-      <c r="F141" s="17"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="23"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="18"/>
-      <c r="B142" s="19"/>
+      <c r="A142" s="24"/>
+      <c r="B142" s="25"/>
       <c r="C142" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D142" s="17" t="s">
+      <c r="D142" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="E142" s="17"/>
-      <c r="F142" s="17"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="23"/>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="18"/>
-      <c r="B143" s="19"/>
+      <c r="A143" s="24"/>
+      <c r="B143" s="25"/>
       <c r="C143" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D143" s="17" t="s">
+      <c r="D143" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="23"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="18"/>
-      <c r="B144" s="19"/>
+      <c r="A144" s="24"/>
+      <c r="B144" s="25"/>
       <c r="C144" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D144" s="17" t="s">
+      <c r="D144" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E144" s="17"/>
-      <c r="F144" s="17"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="23"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="18"/>
-      <c r="B145" s="19"/>
+      <c r="A145" s="24"/>
+      <c r="B145" s="25"/>
       <c r="C145" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D145" s="17" t="s">
+      <c r="D145" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E145" s="17"/>
-      <c r="F145" s="17"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="23"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="18"/>
-      <c r="B146" s="19"/>
+      <c r="A146" s="24"/>
+      <c r="B146" s="25"/>
       <c r="C146" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D146" s="17" t="s">
+      <c r="D146" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E146" s="17"/>
-      <c r="F146" s="17"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="23"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="18"/>
-      <c r="B147" s="19"/>
+      <c r="A147" s="24"/>
+      <c r="B147" s="25"/>
       <c r="C147" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D147" s="17" t="s">
+      <c r="D147" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E147" s="17"/>
-      <c r="F147" s="17"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="23"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="18"/>
-      <c r="B148" s="19"/>
+      <c r="A148" s="24"/>
+      <c r="B148" s="25"/>
       <c r="C148" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D148" s="17" t="s">
+      <c r="D148" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E148" s="17"/>
-      <c r="F148" s="17"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="23"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="18"/>
-      <c r="B149" s="19"/>
+      <c r="A149" s="24"/>
+      <c r="B149" s="25"/>
       <c r="C149" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D149" s="17" t="s">
+      <c r="D149" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E149" s="17"/>
-      <c r="F149" s="17"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="18"/>
-      <c r="B150" s="19"/>
+      <c r="A150" s="24"/>
+      <c r="B150" s="25"/>
       <c r="C150" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D150" s="17" t="s">
+      <c r="D150" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E150" s="17"/>
-      <c r="F150" s="17"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="18"/>
-      <c r="B151" s="19"/>
+      <c r="A151" s="24"/>
+      <c r="B151" s="25"/>
       <c r="C151" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D151" s="17" t="s">
+      <c r="D151" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="23"/>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="18"/>
-      <c r="B152" s="19"/>
+      <c r="A152" s="24"/>
+      <c r="B152" s="25"/>
       <c r="C152" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D152" s="17" t="s">
+      <c r="D152" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E152" s="17"/>
-      <c r="F152" s="17"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="23"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="18" t="s">
+      <c r="A153" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="B153" s="19" t="s">
+      <c r="B153" s="25" t="s">
         <v>147</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D153" s="17" t="s">
+      <c r="D153" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E153" s="17"/>
-      <c r="F153" s="17"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="18"/>
-      <c r="B154" s="19"/>
+      <c r="A154" s="24"/>
+      <c r="B154" s="25"/>
       <c r="C154" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D154" s="17" t="s">
+      <c r="D154" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E154" s="17"/>
-      <c r="F154" s="17"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="18"/>
-      <c r="B155" s="19"/>
+      <c r="A155" s="24"/>
+      <c r="B155" s="25"/>
       <c r="C155" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D155" s="17" t="s">
+      <c r="D155" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E155" s="17"/>
-      <c r="F155" s="17"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="23"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="18"/>
-      <c r="B156" s="19"/>
+      <c r="A156" s="24"/>
+      <c r="B156" s="25"/>
       <c r="C156" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D156" s="17" t="s">
+      <c r="D156" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="E156" s="17"/>
-      <c r="F156" s="17"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="23"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="18"/>
-      <c r="B157" s="19"/>
+      <c r="A157" s="24"/>
+      <c r="B157" s="25"/>
       <c r="C157" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D157" s="17" t="s">
+      <c r="D157" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E157" s="17"/>
-      <c r="F157" s="17"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="23"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="18"/>
-      <c r="B158" s="19"/>
+      <c r="A158" s="24"/>
+      <c r="B158" s="25"/>
       <c r="C158" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D158" s="17" t="s">
+      <c r="D158" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E158" s="17"/>
-      <c r="F158" s="17"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="23"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="18"/>
-      <c r="B159" s="19"/>
+      <c r="A159" s="24"/>
+      <c r="B159" s="25"/>
       <c r="C159" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D159" s="17" t="s">
+      <c r="D159" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E159" s="17"/>
-      <c r="F159" s="17"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="23"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="18"/>
-      <c r="B160" s="19"/>
+      <c r="A160" s="24"/>
+      <c r="B160" s="25"/>
       <c r="C160" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D160" s="17" t="s">
+      <c r="D160" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="E160" s="17"/>
-      <c r="F160" s="17"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="18" t="s">
+      <c r="A161" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="B161" s="19" t="s">
+      <c r="B161" s="25" t="s">
         <v>158</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="17" t="s">
+      <c r="D161" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="E161" s="17"/>
-      <c r="F161" s="17"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="18"/>
-      <c r="B162" s="19"/>
+      <c r="A162" s="24"/>
+      <c r="B162" s="25"/>
       <c r="C162" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D162" s="17" t="s">
+      <c r="D162" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="E162" s="17"/>
-      <c r="F162" s="17"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="23"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="18"/>
-      <c r="B163" s="19"/>
+      <c r="A163" s="24"/>
+      <c r="B163" s="25"/>
       <c r="C163" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D163" s="17" t="s">
+      <c r="D163" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E163" s="17"/>
-      <c r="F163" s="17"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="23"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="18"/>
-      <c r="B164" s="19"/>
+      <c r="A164" s="24"/>
+      <c r="B164" s="25"/>
       <c r="C164" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D164" s="17" t="s">
+      <c r="D164" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="23"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="18"/>
-      <c r="B165" s="19"/>
+      <c r="A165" s="24"/>
+      <c r="B165" s="25"/>
       <c r="C165" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D165" s="17" t="s">
+      <c r="D165" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E165" s="17"/>
-      <c r="F165" s="17"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="18"/>
-      <c r="B166" s="19"/>
+      <c r="A166" s="24"/>
+      <c r="B166" s="25"/>
       <c r="C166" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D166" s="17" t="s">
+      <c r="D166" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="E166" s="17"/>
-      <c r="F166" s="17"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="23"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="18"/>
-      <c r="B167" s="19"/>
+      <c r="A167" s="24"/>
+      <c r="B167" s="25"/>
       <c r="C167" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D167" s="17" t="s">
+      <c r="D167" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E167" s="17"/>
-      <c r="F167" s="17"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="23"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="18"/>
-      <c r="B168" s="19"/>
+      <c r="A168" s="24"/>
+      <c r="B168" s="25"/>
       <c r="C168" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D168" s="17" t="s">
+      <c r="D168" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E168" s="17"/>
-      <c r="F168" s="17"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="18"/>
-      <c r="B169" s="19"/>
+      <c r="A169" s="24"/>
+      <c r="B169" s="25"/>
       <c r="C169" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D169" s="17" t="s">
+      <c r="D169" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E169" s="17"/>
-      <c r="F169" s="17"/>
+      <c r="E169" s="23"/>
+      <c r="F169" s="23"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="18"/>
-      <c r="B170" s="19"/>
+      <c r="A170" s="24"/>
+      <c r="B170" s="25"/>
       <c r="C170" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D170" s="17" t="s">
+      <c r="D170" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="E170" s="17"/>
-      <c r="F170" s="17"/>
+      <c r="E170" s="23"/>
+      <c r="F170" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="191">
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="A161:A170"/>
+    <mergeCell ref="B161:B170"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="A153:A160"/>
+    <mergeCell ref="B153:B160"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="A136:A152"/>
+    <mergeCell ref="B136:B152"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="D146:F146"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="A122:A135"/>
+    <mergeCell ref="B122:B135"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="A102:A121"/>
+    <mergeCell ref="B102:B121"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="A79:A101"/>
+    <mergeCell ref="B79:B101"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A56:A78"/>
+    <mergeCell ref="B56:B78"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="A35:A55"/>
+    <mergeCell ref="B35:B55"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="A9:B9"/>
@@ -3680,164 +3823,15 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="A35:A55"/>
-    <mergeCell ref="B35:B55"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A56:A78"/>
-    <mergeCell ref="B56:B78"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="A79:A101"/>
-    <mergeCell ref="B79:B101"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="A102:A121"/>
-    <mergeCell ref="B102:B121"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="A122:A135"/>
-    <mergeCell ref="B122:B135"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="A136:A152"/>
-    <mergeCell ref="B136:B152"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="D145:F145"/>
-    <mergeCell ref="D146:F146"/>
-    <mergeCell ref="D147:F147"/>
-    <mergeCell ref="D148:F148"/>
-    <mergeCell ref="D149:F149"/>
-    <mergeCell ref="D150:F150"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="A153:A160"/>
-    <mergeCell ref="B153:B160"/>
-    <mergeCell ref="D154:F154"/>
-    <mergeCell ref="D155:F155"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="D157:F157"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="D159:F159"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="A161:A170"/>
-    <mergeCell ref="B161:B170"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="D164:F164"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="D166:F166"/>
-    <mergeCell ref="D167:F167"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="D169:F169"/>
-    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -3862,67 +3856,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="36" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -3943,12 +3937,12 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
@@ -3969,7 +3963,7 @@
         <v>122</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>103</v>
@@ -3990,13 +3984,13 @@
         <v>126</v>
       </c>
       <c r="I6" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="K6" s="35" t="s">
         <v>284</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>286</v>
       </c>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
@@ -4005,10 +3999,10 @@
         <v>131</v>
       </c>
       <c r="P6" s="35" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q6" s="35" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4040,6 +4034,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="A1:Q3"/>
     <mergeCell ref="A4:Q4"/>
@@ -4056,8 +4052,6 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -4083,36 +4077,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="36" t="s">
@@ -4128,18 +4122,18 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="35" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
       <c r="F5" s="35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G5" s="35"/>
       <c r="H5" s="35" t="s">
@@ -4150,13 +4144,13 @@
       <c r="A6" s="35"/>
       <c r="B6" s="35"/>
       <c r="C6" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>294</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>296</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>232</v>
@@ -4202,42 +4196,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="36" t="s">
@@ -4261,18 +4255,18 @@
         <v>22</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>150</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
       <c r="H5" s="35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="35" t="s">
@@ -4285,13 +4279,13 @@
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>294</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>296</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>232</v>
@@ -4336,70 +4330,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="21">
       <c r="A6" s="3" t="s">
@@ -4423,41 +4417,41 @@
       <c r="G6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" ht="24.5">
       <c r="A9" s="5" t="s">
@@ -4481,20 +4475,20 @@
       <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="34" t="s">
         <v>179</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="33" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="8">
@@ -4509,18 +4503,18 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="29"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="8">
         <v>0</v>
       </c>
@@ -4533,16 +4527,16 @@
       <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="29"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="8">
         <v>0</v>
       </c>
@@ -4555,16 +4549,16 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="29"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="8">
         <v>0</v>
       </c>
@@ -4577,16 +4571,16 @@
       <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="29"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="8">
         <v>0</v>
       </c>
@@ -4599,9 +4593,9 @@
       <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
@@ -4625,20 +4619,20 @@
       <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="34" t="s">
         <v>179</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="33" t="s">
         <v>181</v>
       </c>
       <c r="D16" s="8">
@@ -4653,18 +4647,18 @@
       <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="29"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="8">
         <v>0</v>
       </c>
@@ -4677,9 +4671,9 @@
       <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="24">
       <c r="A18" s="5" t="s">
@@ -4703,20 +4697,20 @@
       <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="34" t="s">
         <v>179</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="33" t="s">
         <v>181</v>
       </c>
       <c r="D19" s="8">
@@ -4731,18 +4725,18 @@
       <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="29"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="8">
         <v>0</v>
       </c>
@@ -4755,16 +4749,16 @@
       <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="29"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="8">
         <v>0</v>
       </c>
@@ -4777,16 +4771,16 @@
       <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="29"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="8">
         <v>0</v>
       </c>
@@ -4799,9 +4793,9 @@
       <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="5" t="s">
@@ -4825,20 +4819,20 @@
       <c r="G23" s="8">
         <v>0</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="34" t="s">
         <v>179</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="33" t="s">
         <v>181</v>
       </c>
       <c r="D24" s="8">
@@ -4853,18 +4847,18 @@
       <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="29"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="8">
         <v>0</v>
       </c>
@@ -4877,16 +4871,16 @@
       <c r="G25" s="8">
         <v>0</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="29"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="28"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="8">
         <v>0</v>
       </c>
@@ -4899,16 +4893,16 @@
       <c r="G26" s="8">
         <v>0</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="29"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="8">
         <v>0</v>
       </c>
@@ -4921,25 +4915,25 @@
       <c r="G27" s="8">
         <v>0</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="5" t="s">
@@ -4963,14 +4957,14 @@
       <c r="G29" s="8">
         <v>0</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="34" t="s">
         <v>179</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -4991,14 +4985,14 @@
       <c r="G30" s="8">
         <v>0</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="29"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="9" t="s">
         <v>210</v>
       </c>
@@ -5017,12 +5011,12 @@
       <c r="G31" s="8">
         <v>0</v>
       </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="29"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="9" t="s">
         <v>211</v>
       </c>
@@ -5041,12 +5035,12 @@
       <c r="G32" s="8">
         <v>0</v>
       </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
     </row>
     <row r="33" spans="1:10" ht="24.5">
-      <c r="A33" s="29"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="9" t="s">
         <v>213</v>
       </c>
@@ -5065,12 +5059,12 @@
       <c r="G33" s="8">
         <v>0</v>
       </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="29"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="9" t="s">
         <v>214</v>
       </c>
@@ -5089,12 +5083,12 @@
       <c r="G34" s="8">
         <v>0</v>
       </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="29"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="9" t="s">
         <v>215</v>
       </c>
@@ -5113,27 +5107,12 @@
       <c r="G35" s="8">
         <v>0</v>
       </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J14"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="H18:J18"/>
     <mergeCell ref="B28:J28"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="H30:J35"/>
@@ -5145,6 +5124,21 @@
     <mergeCell ref="H24:J27"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="C24:C27"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J14"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -5169,70 +5163,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="21">
       <c r="A6" s="3" t="s">
@@ -5256,41 +5250,41 @@
       <c r="G6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" ht="24.5">
       <c r="A9" s="5" t="s">
@@ -5314,20 +5308,20 @@
       <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="34" t="s">
         <v>179</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="33" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="8">
@@ -5342,18 +5336,18 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="29"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="8">
         <v>0</v>
       </c>
@@ -5366,16 +5360,16 @@
       <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="29"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="8">
         <v>0</v>
       </c>
@@ -5388,16 +5382,16 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="29"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="8">
         <v>0</v>
       </c>
@@ -5410,16 +5404,16 @@
       <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="29"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="8">
         <v>0</v>
       </c>
@@ -5432,9 +5426,9 @@
       <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
@@ -5458,20 +5452,20 @@
       <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="34" t="s">
         <v>179</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="33" t="s">
         <v>181</v>
       </c>
       <c r="D16" s="8">
@@ -5486,18 +5480,18 @@
       <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="29"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="8">
         <v>0</v>
       </c>
@@ -5510,9 +5504,9 @@
       <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="24">
       <c r="A18" s="5" t="s">
@@ -5536,20 +5530,20 @@
       <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="34" t="s">
         <v>179</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="33" t="s">
         <v>181</v>
       </c>
       <c r="D19" s="8">
@@ -5564,18 +5558,18 @@
       <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="29"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="8">
         <v>0</v>
       </c>
@@ -5588,16 +5582,16 @@
       <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="29"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="8">
         <v>0</v>
       </c>
@@ -5610,16 +5604,16 @@
       <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="29"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="8">
         <v>0</v>
       </c>
@@ -5632,25 +5626,25 @@
       <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5" t="s">
@@ -5674,14 +5668,14 @@
       <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="34" t="s">
         <v>179</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -5702,14 +5696,14 @@
       <c r="G25" s="8">
         <v>0</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="29"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="9" t="s">
         <v>210</v>
       </c>
@@ -5728,12 +5722,12 @@
       <c r="G26" s="8">
         <v>0</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="29"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="9" t="s">
         <v>211</v>
       </c>
@@ -5752,12 +5746,12 @@
       <c r="G27" s="8">
         <v>0</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="24.5">
-      <c r="A28" s="29"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="9" t="s">
         <v>213</v>
       </c>
@@ -5776,12 +5770,12 @@
       <c r="G28" s="8">
         <v>0</v>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="29"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="9" t="s">
         <v>214</v>
       </c>
@@ -5800,12 +5794,12 @@
       <c r="G29" s="8">
         <v>0</v>
       </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="29"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="9" t="s">
         <v>215</v>
       </c>
@@ -5824,27 +5818,12 @@
       <c r="G30" s="8">
         <v>0</v>
       </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J14"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="H18:J18"/>
     <mergeCell ref="H25:J30"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="H19:J22"/>
@@ -5852,6 +5831,21 @@
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J14"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -5862,8 +5856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5881,78 +5875,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="36" t="s">
@@ -6238,7 +6232,7 @@
         <v>241</v>
       </c>
       <c r="I9" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9" s="12">
         <v>27492</v>
@@ -6287,14 +6281,14 @@
       <c r="B10" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>257</v>
+      <c r="C10" s="11">
+        <v>10076</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>238</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F10" s="12">
         <v>38240</v>
@@ -6339,30 +6333,30 @@
         <v>245</v>
       </c>
       <c r="T10" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="U10" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="V10" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>263</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>264</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>238</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F11" s="12">
         <v>16290</v>
@@ -6395,7 +6389,7 @@
         <v>242</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="13" t="s">
         <v>244</v>
@@ -6418,13 +6412,13 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>269</v>
+      <c r="C12" s="11">
+        <v>5679</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>238</v>
@@ -6463,7 +6457,7 @@
         <v>242</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q12" s="13" t="s">
         <v>244</v>
@@ -6486,6 +6480,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="A1:V3"/>
     <mergeCell ref="A4:V4"/>
@@ -6502,8 +6498,6 @@
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -6535,79 +6529,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="36" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -6632,11 +6626,11 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -6759,6 +6753,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="T6:T7"/>
@@ -6775,9 +6772,6 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -6806,85 +6800,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -6917,7 +6911,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
@@ -6976,13 +6970,13 @@
         <v>79</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>83</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -7011,6 +7005,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
     <mergeCell ref="W5:W6"/>
     <mergeCell ref="A1:W3"/>
     <mergeCell ref="A4:W4"/>
@@ -7027,8 +7023,6 @@
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -7055,85 +7049,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -7160,12 +7154,12 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
       <c r="D5" s="38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
@@ -7204,7 +7198,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
@@ -7257,13 +7251,13 @@
         <v>79</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>83</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
@@ -7289,11 +7283,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
     <mergeCell ref="V6:V7"/>
     <mergeCell ref="W6:W7"/>
     <mergeCell ref="A1:W3"/>
@@ -7309,6 +7298,11 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -7335,72 +7329,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="36" t="s">
@@ -7434,7 +7428,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
@@ -7446,10 +7440,10 @@
         <v>35</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K5" s="35"/>
       <c r="L5" s="35"/>
@@ -7489,7 +7483,7 @@
         <v>103</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
@@ -7556,58 +7550,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="36" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -7640,13 +7634,13 @@
         <v>126</v>
       </c>
       <c r="F5" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="H5" s="35" t="s">
         <v>284</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>286</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="35"/>
@@ -7655,10 +7649,10 @@
         <v>131</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:14">

--- a/uploads/012024_09AGJPA4914E1ZP_GSTR2B_17022024 (4).xlsx
+++ b/uploads/012024_09AGJPA4914E1ZP_GSTR2B_17022024 (4).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA264014-69E6-482C-9885-61C36306FAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5454C7-9698-40BC-AB40-EE833238EB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="296">
   <si>
     <t>Goods and Services Tax  - GSTR-2B</t>
   </si>
@@ -942,12 +942,18 @@
   <si>
     <t>Taxable Value</t>
   </si>
+  <si>
+    <t>18/01/2029</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
+  </numFmts>
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1022,6 +1028,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1114,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1161,15 +1173,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1180,14 +1198,26 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1204,18 +1234,6 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1226,6 +1244,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1569,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:F3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1584,112 +1605,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6" ht="29">
       <c r="A12" s="1" t="s">
@@ -1701,2008 +1722,2051 @@
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" ht="28">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" ht="28">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="21" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="24"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="24"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="24"/>
-      <c r="B43" s="25"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="24"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="24"/>
-      <c r="B45" s="25"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="24"/>
-      <c r="B46" s="25"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="24"/>
-      <c r="B47" s="25"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="24"/>
-      <c r="B50" s="25"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="24"/>
-      <c r="B51" s="25"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
     </row>
     <row r="52" spans="1:6" ht="28">
-      <c r="A52" s="24"/>
-      <c r="B52" s="25"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="24"/>
-      <c r="B53" s="25"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="24"/>
-      <c r="B54" s="25"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="24"/>
-      <c r="B55" s="25"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="21" t="s">
         <v>75</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="24"/>
-      <c r="B57" s="25"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="24"/>
-      <c r="B58" s="25"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="24"/>
-      <c r="B59" s="25"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="24"/>
-      <c r="B60" s="25"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="24"/>
-      <c r="B61" s="25"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="24"/>
-      <c r="B62" s="25"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="24"/>
-      <c r="B63" s="25"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="24"/>
-      <c r="B64" s="25"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="24"/>
-      <c r="B65" s="25"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="24"/>
-      <c r="B66" s="25"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="23" t="s">
+      <c r="D66" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="24"/>
-      <c r="B67" s="25"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="24"/>
-      <c r="B68" s="25"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="D68" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="24"/>
-      <c r="B69" s="25"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D69" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="24"/>
-      <c r="B70" s="25"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="24"/>
-      <c r="B71" s="25"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D71" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
     </row>
     <row r="72" spans="1:6" ht="28">
-      <c r="A72" s="24"/>
-      <c r="B72" s="25"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D72" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="24"/>
-      <c r="B73" s="25"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D73" s="23" t="s">
+      <c r="D73" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="24"/>
-      <c r="B74" s="25"/>
+      <c r="A74" s="20"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="24"/>
-      <c r="B75" s="25"/>
+      <c r="A75" s="20"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D75" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="24"/>
-      <c r="B76" s="25"/>
+      <c r="A76" s="20"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="24"/>
-      <c r="B77" s="25"/>
+      <c r="A77" s="20"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D77" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="24"/>
-      <c r="B78" s="25"/>
+      <c r="A78" s="20"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="D78" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="21" t="s">
         <v>88</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="24"/>
-      <c r="B80" s="25"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="24"/>
-      <c r="B81" s="25"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D81" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="24"/>
-      <c r="B82" s="25"/>
+      <c r="A82" s="20"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="24"/>
-      <c r="B83" s="25"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="21"/>
       <c r="C83" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D83" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="24"/>
-      <c r="B84" s="25"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="21"/>
       <c r="C84" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="D84" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="24"/>
-      <c r="B85" s="25"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D85" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="24"/>
-      <c r="B86" s="25"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="21"/>
       <c r="C86" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="23" t="s">
+      <c r="D86" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="24"/>
-      <c r="B87" s="25"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="23" t="s">
+      <c r="D87" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="24"/>
-      <c r="B88" s="25"/>
+      <c r="A88" s="20"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D88" s="23" t="s">
+      <c r="D88" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="24"/>
-      <c r="B89" s="25"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="D89" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="24"/>
-      <c r="B90" s="25"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="23" t="s">
+      <c r="D90" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="24"/>
-      <c r="B91" s="25"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D91" s="23" t="s">
+      <c r="D91" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="24"/>
-      <c r="B92" s="25"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="D92" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="24"/>
-      <c r="B93" s="25"/>
+      <c r="A93" s="20"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="D93" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="24"/>
-      <c r="B94" s="25"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="21"/>
       <c r="C94" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D94" s="23" t="s">
+      <c r="D94" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="24"/>
-      <c r="B95" s="25"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="21"/>
       <c r="C95" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D95" s="23" t="s">
+      <c r="D95" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="24"/>
-      <c r="B96" s="25"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D96" s="23" t="s">
+      <c r="D96" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="24"/>
-      <c r="B97" s="25"/>
+      <c r="A97" s="20"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D97" s="23" t="s">
+      <c r="D97" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
     </row>
     <row r="98" spans="1:6" ht="28">
-      <c r="A98" s="24"/>
-      <c r="B98" s="25"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="21"/>
       <c r="C98" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D98" s="23" t="s">
+      <c r="D98" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="24"/>
-      <c r="B99" s="25"/>
+      <c r="A99" s="20"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D99" s="23" t="s">
+      <c r="D99" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="24"/>
-      <c r="B100" s="25"/>
+      <c r="A100" s="20"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D100" s="23" t="s">
+      <c r="D100" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="24"/>
-      <c r="B101" s="25"/>
+      <c r="A101" s="20"/>
+      <c r="B101" s="21"/>
       <c r="C101" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D101" s="23" t="s">
+      <c r="D101" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="24" t="s">
+      <c r="A102" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B102" s="25" t="s">
+      <c r="B102" s="21" t="s">
         <v>96</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D102" s="23" t="s">
+      <c r="D102" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="24"/>
-      <c r="B103" s="25"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="21"/>
       <c r="C103" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="23" t="s">
+      <c r="D103" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="24"/>
-      <c r="B104" s="25"/>
+      <c r="A104" s="20"/>
+      <c r="B104" s="21"/>
       <c r="C104" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D104" s="23" t="s">
+      <c r="D104" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="24"/>
-      <c r="B105" s="25"/>
+      <c r="A105" s="20"/>
+      <c r="B105" s="21"/>
       <c r="C105" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="23" t="s">
+      <c r="D105" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="24"/>
-      <c r="B106" s="25"/>
+      <c r="A106" s="20"/>
+      <c r="B106" s="21"/>
       <c r="C106" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D106" s="23" t="s">
+      <c r="D106" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E106" s="23"/>
-      <c r="F106" s="23"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="24"/>
-      <c r="B107" s="25"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D107" s="23" t="s">
+      <c r="D107" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="24"/>
-      <c r="B108" s="25"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="23" t="s">
+      <c r="D108" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="24"/>
-      <c r="B109" s="25"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D109" s="23" t="s">
+      <c r="D109" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="24"/>
-      <c r="B110" s="25"/>
+      <c r="A110" s="20"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D110" s="23" t="s">
+      <c r="D110" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="24"/>
-      <c r="B111" s="25"/>
+      <c r="A111" s="20"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D111" s="23" t="s">
+      <c r="D111" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="24"/>
-      <c r="B112" s="25"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D112" s="23" t="s">
+      <c r="D112" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="24"/>
-      <c r="B113" s="25"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D113" s="23" t="s">
+      <c r="D113" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="24"/>
-      <c r="B114" s="25"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D114" s="23" t="s">
+      <c r="D114" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="24"/>
-      <c r="B115" s="25"/>
+      <c r="A115" s="20"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D115" s="23" t="s">
+      <c r="D115" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="24"/>
-      <c r="B116" s="25"/>
+      <c r="A116" s="20"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D116" s="23" t="s">
+      <c r="D116" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E116" s="23"/>
-      <c r="F116" s="23"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="24"/>
-      <c r="B117" s="25"/>
+      <c r="A117" s="20"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D117" s="23" t="s">
+      <c r="D117" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E117" s="23"/>
-      <c r="F117" s="23"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="24"/>
-      <c r="B118" s="25"/>
+      <c r="A118" s="20"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D118" s="23" t="s">
+      <c r="D118" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="24"/>
-      <c r="B119" s="25"/>
+      <c r="A119" s="20"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D119" s="23" t="s">
+      <c r="D119" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="24"/>
-      <c r="B120" s="25"/>
+      <c r="A120" s="20"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D120" s="23" t="s">
+      <c r="D120" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E120" s="23"/>
-      <c r="F120" s="23"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="24"/>
-      <c r="B121" s="25"/>
+      <c r="A121" s="20"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D121" s="23" t="s">
+      <c r="D121" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="24" t="s">
+      <c r="A122" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B122" s="25" t="s">
+      <c r="B122" s="21" t="s">
         <v>117</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D122" s="23" t="s">
+      <c r="D122" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E122" s="23"/>
-      <c r="F122" s="23"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="24"/>
-      <c r="B123" s="25"/>
+      <c r="A123" s="20"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D123" s="23" t="s">
+      <c r="D123" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="E123" s="23"/>
-      <c r="F123" s="23"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="24"/>
-      <c r="B124" s="25"/>
+      <c r="A124" s="20"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D124" s="23" t="s">
+      <c r="D124" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E124" s="23"/>
-      <c r="F124" s="23"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="24"/>
-      <c r="B125" s="25"/>
+      <c r="A125" s="20"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D125" s="23" t="s">
+      <c r="D125" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="24"/>
-      <c r="B126" s="25"/>
+      <c r="A126" s="20"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D126" s="23" t="s">
+      <c r="D126" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="24"/>
-      <c r="B127" s="25"/>
+      <c r="A127" s="20"/>
+      <c r="B127" s="21"/>
       <c r="C127" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D127" s="23" t="s">
+      <c r="D127" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E127" s="23"/>
-      <c r="F127" s="23"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="24"/>
-      <c r="B128" s="25"/>
+      <c r="A128" s="20"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D128" s="23" t="s">
+      <c r="D128" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="24"/>
-      <c r="B129" s="25"/>
+      <c r="A129" s="20"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D129" s="23" t="s">
+      <c r="D129" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="24"/>
-      <c r="B130" s="25"/>
+      <c r="A130" s="20"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D130" s="23" t="s">
+      <c r="D130" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="24"/>
-      <c r="B131" s="25"/>
+      <c r="A131" s="20"/>
+      <c r="B131" s="21"/>
       <c r="C131" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D131" s="23" t="s">
+      <c r="D131" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="24"/>
-      <c r="B132" s="25"/>
+      <c r="A132" s="20"/>
+      <c r="B132" s="21"/>
       <c r="C132" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D132" s="23" t="s">
+      <c r="D132" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="24"/>
-      <c r="B133" s="25"/>
+      <c r="A133" s="20"/>
+      <c r="B133" s="21"/>
       <c r="C133" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D133" s="23" t="s">
+      <c r="D133" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="E133" s="23"/>
-      <c r="F133" s="23"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="24"/>
-      <c r="B134" s="25"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="21"/>
       <c r="C134" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D134" s="23" t="s">
+      <c r="D134" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E134" s="23"/>
-      <c r="F134" s="23"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="24"/>
-      <c r="B135" s="25"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="21"/>
       <c r="C135" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D135" s="23" t="s">
+      <c r="D135" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E135" s="23"/>
-      <c r="F135" s="23"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="24" t="s">
+      <c r="A136" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B136" s="25" t="s">
+      <c r="B136" s="21" t="s">
         <v>138</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D136" s="23" t="s">
+      <c r="D136" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E136" s="23"/>
-      <c r="F136" s="23"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
     </row>
     <row r="137" spans="1:6" ht="28">
-      <c r="A137" s="24"/>
-      <c r="B137" s="25"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="21"/>
       <c r="C137" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D137" s="23" t="s">
+      <c r="D137" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="E137" s="23"/>
-      <c r="F137" s="23"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="24"/>
-      <c r="B138" s="25"/>
+      <c r="A138" s="20"/>
+      <c r="B138" s="21"/>
       <c r="C138" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D138" s="23" t="s">
+      <c r="D138" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E138" s="23"/>
-      <c r="F138" s="23"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="24"/>
-      <c r="B139" s="25"/>
+      <c r="A139" s="20"/>
+      <c r="B139" s="21"/>
       <c r="C139" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D139" s="23" t="s">
+      <c r="D139" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="E139" s="23"/>
-      <c r="F139" s="23"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="24"/>
-      <c r="B140" s="25"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="21"/>
       <c r="C140" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D140" s="23" t="s">
+      <c r="D140" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="E140" s="23"/>
-      <c r="F140" s="23"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="24"/>
-      <c r="B141" s="25"/>
+      <c r="A141" s="20"/>
+      <c r="B141" s="21"/>
       <c r="C141" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D141" s="23" t="s">
+      <c r="D141" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E141" s="23"/>
-      <c r="F141" s="23"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="24"/>
-      <c r="B142" s="25"/>
+      <c r="A142" s="20"/>
+      <c r="B142" s="21"/>
       <c r="C142" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D142" s="23" t="s">
+      <c r="D142" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E142" s="23"/>
-      <c r="F142" s="23"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="24"/>
-      <c r="B143" s="25"/>
+      <c r="A143" s="20"/>
+      <c r="B143" s="21"/>
       <c r="C143" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D143" s="23" t="s">
+      <c r="D143" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="E143" s="23"/>
-      <c r="F143" s="23"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="24"/>
-      <c r="B144" s="25"/>
+      <c r="A144" s="20"/>
+      <c r="B144" s="21"/>
       <c r="C144" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D144" s="23" t="s">
+      <c r="D144" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E144" s="23"/>
-      <c r="F144" s="23"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="24"/>
-      <c r="B145" s="25"/>
+      <c r="A145" s="20"/>
+      <c r="B145" s="21"/>
       <c r="C145" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D145" s="23" t="s">
+      <c r="D145" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E145" s="23"/>
-      <c r="F145" s="23"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="24"/>
-      <c r="B146" s="25"/>
+      <c r="A146" s="20"/>
+      <c r="B146" s="21"/>
       <c r="C146" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D146" s="23" t="s">
+      <c r="D146" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E146" s="23"/>
-      <c r="F146" s="23"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="24"/>
-      <c r="B147" s="25"/>
+      <c r="A147" s="20"/>
+      <c r="B147" s="21"/>
       <c r="C147" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D147" s="23" t="s">
+      <c r="D147" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E147" s="23"/>
-      <c r="F147" s="23"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="24"/>
-      <c r="B148" s="25"/>
+      <c r="A148" s="20"/>
+      <c r="B148" s="21"/>
       <c r="C148" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D148" s="23" t="s">
+      <c r="D148" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E148" s="23"/>
-      <c r="F148" s="23"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="24"/>
-      <c r="B149" s="25"/>
+      <c r="A149" s="20"/>
+      <c r="B149" s="21"/>
       <c r="C149" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D149" s="23" t="s">
+      <c r="D149" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E149" s="23"/>
-      <c r="F149" s="23"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="24"/>
-      <c r="B150" s="25"/>
+      <c r="A150" s="20"/>
+      <c r="B150" s="21"/>
       <c r="C150" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D150" s="23" t="s">
+      <c r="D150" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="E150" s="23"/>
-      <c r="F150" s="23"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="19"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="24"/>
-      <c r="B151" s="25"/>
+      <c r="A151" s="20"/>
+      <c r="B151" s="21"/>
       <c r="C151" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D151" s="23" t="s">
+      <c r="D151" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E151" s="23"/>
-      <c r="F151" s="23"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="24"/>
-      <c r="B152" s="25"/>
+      <c r="A152" s="20"/>
+      <c r="B152" s="21"/>
       <c r="C152" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D152" s="23" t="s">
+      <c r="D152" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E152" s="23"/>
-      <c r="F152" s="23"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="24" t="s">
+      <c r="A153" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B153" s="25" t="s">
+      <c r="B153" s="21" t="s">
         <v>147</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D153" s="23" t="s">
+      <c r="D153" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E153" s="23"/>
-      <c r="F153" s="23"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="24"/>
-      <c r="B154" s="25"/>
+      <c r="A154" s="20"/>
+      <c r="B154" s="21"/>
       <c r="C154" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D154" s="23" t="s">
+      <c r="D154" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E154" s="23"/>
-      <c r="F154" s="23"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="24"/>
-      <c r="B155" s="25"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="21"/>
       <c r="C155" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D155" s="23" t="s">
+      <c r="D155" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="E155" s="23"/>
-      <c r="F155" s="23"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="24"/>
-      <c r="B156" s="25"/>
+      <c r="A156" s="20"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D156" s="23" t="s">
+      <c r="D156" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E156" s="23"/>
-      <c r="F156" s="23"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="24"/>
-      <c r="B157" s="25"/>
+      <c r="A157" s="20"/>
+      <c r="B157" s="21"/>
       <c r="C157" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D157" s="23" t="s">
+      <c r="D157" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E157" s="23"/>
-      <c r="F157" s="23"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="24"/>
-      <c r="B158" s="25"/>
+      <c r="A158" s="20"/>
+      <c r="B158" s="21"/>
       <c r="C158" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D158" s="23" t="s">
+      <c r="D158" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E158" s="23"/>
-      <c r="F158" s="23"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="24"/>
-      <c r="B159" s="25"/>
+      <c r="A159" s="20"/>
+      <c r="B159" s="21"/>
       <c r="C159" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D159" s="23" t="s">
+      <c r="D159" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E159" s="23"/>
-      <c r="F159" s="23"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="24"/>
-      <c r="B160" s="25"/>
+      <c r="A160" s="20"/>
+      <c r="B160" s="21"/>
       <c r="C160" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D160" s="23" t="s">
+      <c r="D160" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E160" s="23"/>
-      <c r="F160" s="23"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="19"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="24" t="s">
+      <c r="A161" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B161" s="25" t="s">
+      <c r="B161" s="21" t="s">
         <v>158</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="23" t="s">
+      <c r="D161" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="E161" s="23"/>
-      <c r="F161" s="23"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="24"/>
-      <c r="B162" s="25"/>
+      <c r="A162" s="20"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D162" s="23" t="s">
+      <c r="D162" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E162" s="23"/>
-      <c r="F162" s="23"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="19"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="24"/>
-      <c r="B163" s="25"/>
+      <c r="A163" s="20"/>
+      <c r="B163" s="21"/>
       <c r="C163" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D163" s="23" t="s">
+      <c r="D163" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E163" s="23"/>
-      <c r="F163" s="23"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="24"/>
-      <c r="B164" s="25"/>
+      <c r="A164" s="20"/>
+      <c r="B164" s="21"/>
       <c r="C164" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D164" s="23" t="s">
+      <c r="D164" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E164" s="23"/>
-      <c r="F164" s="23"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="24"/>
-      <c r="B165" s="25"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="21"/>
       <c r="C165" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D165" s="23" t="s">
+      <c r="D165" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="E165" s="23"/>
-      <c r="F165" s="23"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="24"/>
-      <c r="B166" s="25"/>
+      <c r="A166" s="20"/>
+      <c r="B166" s="21"/>
       <c r="C166" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D166" s="23" t="s">
+      <c r="D166" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E166" s="23"/>
-      <c r="F166" s="23"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="24"/>
-      <c r="B167" s="25"/>
+      <c r="A167" s="20"/>
+      <c r="B167" s="21"/>
       <c r="C167" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D167" s="23" t="s">
+      <c r="D167" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E167" s="23"/>
-      <c r="F167" s="23"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="24"/>
-      <c r="B168" s="25"/>
+      <c r="A168" s="20"/>
+      <c r="B168" s="21"/>
       <c r="C168" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D168" s="23" t="s">
+      <c r="D168" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E168" s="23"/>
-      <c r="F168" s="23"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="24"/>
-      <c r="B169" s="25"/>
+      <c r="A169" s="20"/>
+      <c r="B169" s="21"/>
       <c r="C169" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D169" s="23" t="s">
+      <c r="D169" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E169" s="23"/>
-      <c r="F169" s="23"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="24"/>
-      <c r="B170" s="25"/>
+      <c r="A170" s="20"/>
+      <c r="B170" s="21"/>
       <c r="C170" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D170" s="23" t="s">
+      <c r="D170" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E170" s="23"/>
-      <c r="F170" s="23"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="191">
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="A161:A170"/>
-    <mergeCell ref="B161:B170"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="D164:F164"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="D166:F166"/>
-    <mergeCell ref="D167:F167"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="D169:F169"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="A153:A160"/>
-    <mergeCell ref="B153:B160"/>
-    <mergeCell ref="D154:F154"/>
-    <mergeCell ref="D155:F155"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="D157:F157"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="D159:F159"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="A136:A152"/>
-    <mergeCell ref="B136:B152"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="D145:F145"/>
-    <mergeCell ref="D146:F146"/>
-    <mergeCell ref="D147:F147"/>
-    <mergeCell ref="D148:F148"/>
-    <mergeCell ref="D149:F149"/>
-    <mergeCell ref="D150:F150"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="A122:A135"/>
-    <mergeCell ref="B122:B135"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A13:A34"/>
+    <mergeCell ref="B13:B34"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="A35:A55"/>
+    <mergeCell ref="B35:B55"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A56:A78"/>
+    <mergeCell ref="B56:B78"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="A79:A101"/>
+    <mergeCell ref="B79:B101"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
     <mergeCell ref="D95:F95"/>
     <mergeCell ref="D96:F96"/>
     <mergeCell ref="D97:F97"/>
@@ -3727,111 +3791,68 @@
     <mergeCell ref="D114:F114"/>
     <mergeCell ref="D115:F115"/>
     <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="A79:A101"/>
-    <mergeCell ref="B79:B101"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A56:A78"/>
-    <mergeCell ref="B56:B78"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="A35:A55"/>
-    <mergeCell ref="B35:B55"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A13:A34"/>
-    <mergeCell ref="B13:B34"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="A122:A135"/>
+    <mergeCell ref="B122:B135"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="A136:A152"/>
+    <mergeCell ref="B136:B152"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="D146:F146"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="A153:A160"/>
+    <mergeCell ref="B153:B160"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="A161:A170"/>
+    <mergeCell ref="B161:B170"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="D170:F170"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -3856,166 +3877,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35" t="s">
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="35" t="s">
+      <c r="P6" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="Q6" s="35" t="s">
+      <c r="Q6" s="37" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
       <c r="K7" s="10" t="s">
         <v>232</v>
       </c>
@@ -4028,12 +4049,14 @@
       <c r="N7" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:Q7"/>
@@ -4050,8 +4073,6 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -4077,72 +4098,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35" t="s">
+      <c r="G5" s="37"/>
+      <c r="H5" s="37" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="10" t="s">
         <v>292</v>
       </c>
@@ -4158,7 +4179,7 @@
       <c r="G6" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="H6" s="35"/>
+      <c r="H6" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4196,88 +4217,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35" t="s">
+      <c r="I5" s="37"/>
+      <c r="J5" s="37" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="10" t="s">
         <v>292</v>
       </c>
@@ -4293,7 +4314,7 @@
       <c r="I6" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="J6" s="35"/>
+      <c r="J6" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4330,70 +4351,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" ht="21">
       <c r="A6" s="3" t="s">
@@ -4417,41 +4438,41 @@
       <c r="G6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" ht="24.5">
       <c r="A9" s="5" t="s">
@@ -4475,20 +4496,20 @@
       <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="30" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="8">
@@ -4503,18 +4524,18 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="34"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="8">
         <v>0</v>
       </c>
@@ -4527,16 +4548,16 @@
       <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="34"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="8">
         <v>0</v>
       </c>
@@ -4549,16 +4570,16 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="34"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="8">
         <v>0</v>
       </c>
@@ -4571,16 +4592,16 @@
       <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="34"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="8">
         <v>0</v>
       </c>
@@ -4593,9 +4614,9 @@
       <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
@@ -4619,20 +4640,20 @@
       <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="30" t="s">
         <v>181</v>
       </c>
       <c r="D16" s="8">
@@ -4647,18 +4668,18 @@
       <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="34"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="8">
         <v>0</v>
       </c>
@@ -4671,9 +4692,9 @@
       <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" ht="24">
       <c r="A18" s="5" t="s">
@@ -4697,20 +4718,20 @@
       <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="30" t="s">
         <v>181</v>
       </c>
       <c r="D19" s="8">
@@ -4725,18 +4746,18 @@
       <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="34"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="8">
         <v>0</v>
       </c>
@@ -4749,16 +4770,16 @@
       <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="34"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="33"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="8">
         <v>0</v>
       </c>
@@ -4771,16 +4792,16 @@
       <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="34"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="33"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="8">
         <v>0</v>
       </c>
@@ -4793,9 +4814,9 @@
       <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="5" t="s">
@@ -4819,20 +4840,20 @@
       <c r="G23" s="8">
         <v>0</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="30" t="s">
         <v>181</v>
       </c>
       <c r="D24" s="8">
@@ -4847,18 +4868,18 @@
       <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="34"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C25" s="33"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="8">
         <v>0</v>
       </c>
@@ -4871,16 +4892,16 @@
       <c r="G25" s="8">
         <v>0</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="34"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="33"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="8">
         <v>0</v>
       </c>
@@ -4893,16 +4914,16 @@
       <c r="G26" s="8">
         <v>0</v>
       </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="34"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="33"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="8">
         <v>0</v>
       </c>
@@ -4915,25 +4936,25 @@
       <c r="G27" s="8">
         <v>0</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="5" t="s">
@@ -4957,14 +4978,14 @@
       <c r="G29" s="8">
         <v>0</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -4985,14 +5006,14 @@
       <c r="G30" s="8">
         <v>0</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="34"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="9" t="s">
         <v>210</v>
       </c>
@@ -5011,12 +5032,12 @@
       <c r="G31" s="8">
         <v>0</v>
       </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="34"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="9" t="s">
         <v>211</v>
       </c>
@@ -5035,12 +5056,12 @@
       <c r="G32" s="8">
         <v>0</v>
       </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
     </row>
     <row r="33" spans="1:10" ht="24.5">
-      <c r="A33" s="34"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="9" t="s">
         <v>213</v>
       </c>
@@ -5059,12 +5080,12 @@
       <c r="G33" s="8">
         <v>0</v>
       </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="34"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="9" t="s">
         <v>214</v>
       </c>
@@ -5083,12 +5104,12 @@
       <c r="G34" s="8">
         <v>0</v>
       </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="34"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="9" t="s">
         <v>215</v>
       </c>
@@ -5107,12 +5128,27 @@
       <c r="G35" s="8">
         <v>0</v>
       </c>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J14"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="H18:J18"/>
     <mergeCell ref="B28:J28"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="H30:J35"/>
@@ -5124,21 +5160,6 @@
     <mergeCell ref="H24:J27"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J14"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -5163,70 +5184,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" ht="21">
       <c r="A6" s="3" t="s">
@@ -5250,41 +5271,41 @@
       <c r="G6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" ht="24.5">
       <c r="A9" s="5" t="s">
@@ -5308,20 +5329,20 @@
       <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="30" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="8">
@@ -5336,18 +5357,18 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="34"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="8">
         <v>0</v>
       </c>
@@ -5360,16 +5381,16 @@
       <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="34"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="8">
         <v>0</v>
       </c>
@@ -5382,16 +5403,16 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="34"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="8">
         <v>0</v>
       </c>
@@ -5404,16 +5425,16 @@
       <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="34"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="8">
         <v>0</v>
       </c>
@@ -5426,9 +5447,9 @@
       <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
@@ -5452,20 +5473,20 @@
       <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="30" t="s">
         <v>181</v>
       </c>
       <c r="D16" s="8">
@@ -5480,18 +5501,18 @@
       <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="34"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="8">
         <v>0</v>
       </c>
@@ -5504,9 +5525,9 @@
       <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" ht="24">
       <c r="A18" s="5" t="s">
@@ -5530,20 +5551,20 @@
       <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="30" t="s">
         <v>181</v>
       </c>
       <c r="D19" s="8">
@@ -5558,18 +5579,18 @@
       <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="34"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="8">
         <v>0</v>
       </c>
@@ -5582,16 +5603,16 @@
       <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="34"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="33"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="8">
         <v>0</v>
       </c>
@@ -5604,16 +5625,16 @@
       <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="34"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="33"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="8">
         <v>0</v>
       </c>
@@ -5626,25 +5647,25 @@
       <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5" t="s">
@@ -5668,14 +5689,14 @@
       <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -5696,14 +5717,14 @@
       <c r="G25" s="8">
         <v>0</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="34"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="9" t="s">
         <v>210</v>
       </c>
@@ -5722,12 +5743,12 @@
       <c r="G26" s="8">
         <v>0</v>
       </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="34"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="9" t="s">
         <v>211</v>
       </c>
@@ -5746,12 +5767,12 @@
       <c r="G27" s="8">
         <v>0</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
     </row>
     <row r="28" spans="1:10" ht="24.5">
-      <c r="A28" s="34"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="9" t="s">
         <v>213</v>
       </c>
@@ -5770,12 +5791,12 @@
       <c r="G28" s="8">
         <v>0</v>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="34"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="9" t="s">
         <v>214</v>
       </c>
@@ -5794,12 +5815,12 @@
       <c r="G29" s="8">
         <v>0</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="34"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="9" t="s">
         <v>215</v>
       </c>
@@ -5818,12 +5839,27 @@
       <c r="G30" s="8">
         <v>0</v>
       </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J14"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="H18:J18"/>
     <mergeCell ref="H25:J30"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="H19:J22"/>
@@ -5831,21 +5867,6 @@
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J14"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -5856,8 +5877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7:V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5875,164 +5896,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35" t="s">
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="35" t="s">
+      <c r="Q5" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="35" t="s">
+      <c r="R5" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="U5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="35" t="s">
+      <c r="V5" s="37" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
@@ -6045,10 +6066,10 @@
       <c r="F6" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="10" t="s">
         <v>232</v>
       </c>
@@ -6061,14 +6082,14 @@
       <c r="N6" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="11" t="s">
@@ -6480,6 +6501,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:V6"/>
@@ -6496,8 +6519,6 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -6506,17 +6527,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="A8:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" style="16" customWidth="1"/>
     <col min="3" max="4" width="20" customWidth="1"/>
-    <col min="5" max="7" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
     <col min="8" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="16.7265625" customWidth="1"/>
     <col min="11" max="11" width="10.453125" customWidth="1"/>
@@ -6528,191 +6552,191 @@
     <col min="21" max="21" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="36" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="37" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="35" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35" t="s">
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="35" t="s">
+      <c r="R6" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S6" s="35" t="s">
+      <c r="S6" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="35" t="s">
+      <c r="T6" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="35" t="s">
+      <c r="U6" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
+    <row r="7" spans="1:24">
+      <c r="A7" s="37"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="17" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="10" t="s">
@@ -6721,10 +6745,10 @@
       <c r="H7" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
       <c r="M7" s="10" t="s">
         <v>232</v>
       </c>
@@ -6737,27 +6761,452 @@
       <c r="P7" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="11">
         <v>2357</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="18">
         <v>45309</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="11">
+        <v>235</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" s="12">
+        <v>15600</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="K8" s="14">
+        <v>5</v>
+      </c>
+      <c r="L8" s="12">
+        <v>14858</v>
+      </c>
+      <c r="M8" s="12">
+        <v>742.9</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="W8" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="11">
+        <v>2578</v>
+      </c>
+      <c r="B9" s="18">
+        <v>45675</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H9" s="12">
+        <v>117150</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="K9" s="14">
+        <v>12</v>
+      </c>
+      <c r="L9" s="12">
+        <v>104598.22</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12">
+        <v>6275.89</v>
+      </c>
+      <c r="O9" s="12">
+        <v>6275.89</v>
+      </c>
+      <c r="P9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="W9" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="X9" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="11">
+        <v>7595</v>
+      </c>
+      <c r="B10" s="18">
+        <v>46040</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H10" s="12">
+        <v>28867</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="14">
+        <v>5</v>
+      </c>
+      <c r="L10" s="12">
+        <v>27492</v>
+      </c>
+      <c r="M10" s="12">
+        <v>1374.6</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="13.5" customHeight="1">
+      <c r="A11" s="11">
+        <v>365473</v>
+      </c>
+      <c r="B11" s="18">
+        <v>46405</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1007</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="H11" s="12">
+        <v>38240</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="K11" s="14">
+        <v>5</v>
+      </c>
+      <c r="L11" s="12">
+        <v>36419.199999999997</v>
+      </c>
+      <c r="M11" s="12">
+        <v>1820.96</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="11">
+        <v>2357</v>
+      </c>
+      <c r="B12" s="18">
+        <v>46770</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" s="12">
+        <v>16290</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="K12" s="14">
+        <v>12</v>
+      </c>
+      <c r="L12" s="12">
+        <v>14544.66</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>872.68</v>
+      </c>
+      <c r="O12" s="12">
+        <v>872.68</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="W12" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="11">
+        <v>2357</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="11">
+        <v>567</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H13" s="12">
+        <v>63981.75</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="K13" s="14">
+        <v>5</v>
+      </c>
+      <c r="L13" s="12">
+        <v>60935</v>
+      </c>
+      <c r="M13" s="12">
+        <v>3046.75</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="X13" s="15" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="A1:U3"/>
@@ -6772,9 +7221,15 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6800,169 +7255,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35" t="s">
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="35" t="s">
+      <c r="Q5" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="35" t="s">
+      <c r="R5" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="U5" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="35" t="s">
+      <c r="V5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="W5" s="35" t="s">
+      <c r="W5" s="37" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="10" t="s">
         <v>77</v>
       </c>
@@ -6978,10 +7433,10 @@
       <c r="G6" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
       <c r="L6" s="10" t="s">
         <v>232</v>
       </c>
@@ -6994,17 +7449,19 @@
       <c r="O6" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="W5:W6"/>
@@ -7021,8 +7478,6 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -7049,201 +7504,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="35" t="s">
+      <c r="N6" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="O6" s="35" t="s">
+      <c r="O6" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35" t="s">
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="35" t="s">
+      <c r="T6" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="35" t="s">
+      <c r="U6" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="V6" s="35" t="s">
+      <c r="V6" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="W6" s="35" t="s">
+      <c r="W6" s="37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="10" t="s">
         <v>77</v>
       </c>
@@ -7259,10 +7714,10 @@
       <c r="J7" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
       <c r="O7" s="10" t="s">
         <v>232</v>
       </c>
@@ -7275,14 +7730,18 @@
       <c r="R7" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
     <mergeCell ref="V6:V7"/>
     <mergeCell ref="W6:W7"/>
     <mergeCell ref="A1:W3"/>
@@ -7299,10 +7758,6 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -7329,150 +7784,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35" t="s">
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="Q5" s="35" t="s">
+      <c r="Q5" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="35" t="s">
+      <c r="R5" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="37" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="10" t="s">
         <v>100</v>
       </c>
@@ -7485,9 +7940,9 @@
       <c r="F6" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="10" t="s">
         <v>232</v>
       </c>
@@ -7500,13 +7955,13 @@
       <c r="M6" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -7550,119 +8005,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35" t="s">
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="37" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="10" t="s">
         <v>232</v>
       </c>
@@ -7675,9 +8130,9 @@
       <c r="K6" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/uploads/012024_09AGJPA4914E1ZP_GSTR2B_17022024 (4).xlsx
+++ b/uploads/012024_09AGJPA4914E1ZP_GSTR2B_17022024 (4).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5454C7-9698-40BC-AB40-EE833238EB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D699B9-0ADF-4EED-BCC5-F4F01737C68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6530,7 +6530,7 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
